--- a/data/trans_orig/P15B_3_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P15B_3_R-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>7305</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3352</v>
+        <v>3162</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12586</v>
+        <v>12399</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.290190307855157</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1331708948891942</v>
+        <v>0.125615588229612</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4999778401157745</v>
+        <v>0.4925147321233684</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -765,19 +765,19 @@
         <v>3102</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>911</v>
+        <v>933</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8077</v>
+        <v>8003</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.068123910963032</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.020001951506936</v>
+        <v>0.02048766467310702</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1774044301136744</v>
+        <v>0.1757747578542077</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>11</v>
@@ -786,19 +786,19 @@
         <v>10407</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5269</v>
+        <v>5985</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>17663</v>
+        <v>17270</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.147191974888108</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07451705681715791</v>
+        <v>0.08464671364274423</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2498172819692126</v>
+        <v>0.2442684473605037</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>17869</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>12588</v>
+        <v>12775</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>21822</v>
+        <v>22012</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.709809692144843</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5000221598842255</v>
+        <v>0.507485267876632</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.866829105110806</v>
+        <v>0.8743844117703879</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>41</v>
@@ -836,19 +836,19 @@
         <v>42426</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>37451</v>
+        <v>37525</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>44617</v>
+        <v>44595</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9318760890369681</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8225955698863254</v>
+        <v>0.8242252421457925</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.979998048493064</v>
+        <v>0.979512335326893</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>59</v>
@@ -857,19 +857,19 @@
         <v>60295</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>53039</v>
+        <v>53432</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>65433</v>
+        <v>64717</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.852808025111892</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7501827180307871</v>
+        <v>0.7557315526394963</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9254829431828421</v>
+        <v>0.9153532863572558</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>29383</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>21111</v>
+        <v>20659</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>38912</v>
+        <v>37963</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3742957082745452</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2689174544755995</v>
+        <v>0.2631609854132096</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4956784578566089</v>
+        <v>0.4835908797929197</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -982,19 +982,19 @@
         <v>4864</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1858</v>
+        <v>1873</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>9552</v>
+        <v>9721</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1388062674632573</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05301242526485257</v>
+        <v>0.05344590672798126</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2725807414456606</v>
+        <v>0.2774021543666874</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>33</v>
@@ -1003,19 +1003,19 @@
         <v>34248</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>24887</v>
+        <v>25042</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>45179</v>
+        <v>44928</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3016188963360872</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2191828574966917</v>
+        <v>0.2205410498720499</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3978949594846378</v>
+        <v>0.3956773532795448</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>49120</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>39591</v>
+        <v>40540</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>57392</v>
+        <v>57844</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6257042917254548</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5043215421433912</v>
+        <v>0.5164091202070802</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7310825455244007</v>
+        <v>0.7368390145867904</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>29</v>
@@ -1053,19 +1053,19 @@
         <v>30178</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>25490</v>
+        <v>25321</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>33184</v>
+        <v>33169</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8611937325367427</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7274192585543394</v>
+        <v>0.7225978456333128</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9469875747351474</v>
+        <v>0.9465540932720188</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>77</v>
@@ -1074,19 +1074,19 @@
         <v>79298</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>68367</v>
+        <v>68618</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>88659</v>
+        <v>88504</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6983811036639128</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6021050405153621</v>
+        <v>0.6043226467204551</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7808171425033081</v>
+        <v>0.7794589501279497</v>
       </c>
     </row>
     <row r="9">
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7868</v>
+        <v>8903</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1445484441229595</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4055662376124655</v>
+        <v>0.4589029920359561</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5758</v>
+        <v>6612</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1149889295652367</v>
@@ -1211,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.435038704070456</v>
+        <v>0.4995231485982172</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3</v>
@@ -1220,19 +1220,19 @@
         <v>4326</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1011</v>
+        <v>971</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>10820</v>
+        <v>10692</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1325604314891873</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03096598434823206</v>
+        <v>0.02975524720419101</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3315446652056149</v>
+        <v>0.3276142765017424</v>
       </c>
     </row>
     <row r="11">
@@ -1249,7 +1249,7 @@
         <v>16596</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>11532</v>
+        <v>10497</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>19400</v>
@@ -1258,7 +1258,7 @@
         <v>0.8554515558770405</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5944337623875344</v>
+        <v>0.5410970079640439</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1270,7 +1270,7 @@
         <v>11714</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>7478</v>
+        <v>6624</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>13236</v>
@@ -1279,7 +1279,7 @@
         <v>0.8850110704347632</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.564961295929544</v>
+        <v>0.5004768514017828</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -1291,19 +1291,19 @@
         <v>28310</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>21816</v>
+        <v>21944</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>31625</v>
+        <v>31665</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8674395685108127</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6684553347943849</v>
+        <v>0.6723857234982575</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9690340156517681</v>
+        <v>0.970244752795809</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>39493</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>29359</v>
+        <v>30048</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>50898</v>
+        <v>51287</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3208790836050793</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2385407911320321</v>
+        <v>0.2441374983923758</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4135438132681385</v>
+        <v>0.4167038430676636</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>9</v>
@@ -1416,19 +1416,19 @@
         <v>9488</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4998</v>
+        <v>4701</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>16955</v>
+        <v>16412</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1011406918914414</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05327803248584367</v>
+        <v>0.05011854096064003</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1807475109307728</v>
+        <v>0.1749567541905621</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>47</v>
@@ -1437,19 +1437,19 @@
         <v>48980</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>36902</v>
+        <v>37070</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>62450</v>
+        <v>62490</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.225838107838174</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1701465577093595</v>
+        <v>0.1709232208426756</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2879433517052797</v>
+        <v>0.2881289615526597</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>83584</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>72179</v>
+        <v>71790</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>93718</v>
+        <v>93029</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6791209163949207</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5864561867318614</v>
+        <v>0.5832961569323362</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7614592088679678</v>
+        <v>0.7558625016076239</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>81</v>
@@ -1487,19 +1487,19 @@
         <v>84318</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>76851</v>
+        <v>77394</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>88808</v>
+        <v>89105</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8988593081085585</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8192524890692258</v>
+        <v>0.8250432458094369</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9467219675141563</v>
+        <v>0.9498814590393595</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>162</v>
@@ -1508,19 +1508,19 @@
         <v>167903</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>154433</v>
+        <v>154393</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>179981</v>
+        <v>179813</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.774161892161826</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7120566482947203</v>
+        <v>0.7118710384473403</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8298534422906405</v>
+        <v>0.8290767791573244</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>18358</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11521</v>
+        <v>11337</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>27626</v>
+        <v>26649</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2392230706273218</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1501296117390527</v>
+        <v>0.1477341204537218</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3599994297533378</v>
+        <v>0.3472569900725154</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -1875,7 +1875,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6746</v>
+        <v>8781</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01916648892874876</v>
@@ -1884,7 +1884,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05973644156460677</v>
+        <v>0.07774894587075407</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>19</v>
@@ -1893,19 +1893,19 @@
         <v>20523</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>12574</v>
+        <v>12895</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>30593</v>
+        <v>30026</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1081972395315047</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06629234518365797</v>
+        <v>0.06798659658632736</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1612884866390647</v>
+        <v>0.1582994249430521</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>58382</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>49114</v>
+        <v>50091</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>65219</v>
+        <v>65403</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7607769293726783</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6400005702466622</v>
+        <v>0.6527430099274844</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8498703882609471</v>
+        <v>0.852265879546278</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>105</v>
@@ -1943,7 +1943,7 @@
         <v>110772</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>106191</v>
+        <v>104156</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>112937</v>
@@ -1952,7 +1952,7 @@
         <v>0.9808335110712513</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9402635584353931</v>
+        <v>0.9222510541292457</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -1964,19 +1964,19 @@
         <v>169154</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>159084</v>
+        <v>159651</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>177103</v>
+        <v>176782</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8918027604684953</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8387115133609353</v>
+        <v>0.8417005750569478</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9337076548163421</v>
+        <v>0.9320134034136721</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>38778</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>28691</v>
+        <v>28576</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>50542</v>
+        <v>50720</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2115723887800103</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1565405968172573</v>
+        <v>0.1559134768768396</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2757593281480057</v>
+        <v>0.2767280747639746</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -2089,19 +2089,19 @@
         <v>7560</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3310</v>
+        <v>3206</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14259</v>
+        <v>14095</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06649507113341437</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0291117131397822</v>
+        <v>0.02820086082629243</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1254155892452332</v>
+        <v>0.1239725410450419</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>47</v>
@@ -2110,19 +2110,19 @@
         <v>46338</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>34724</v>
+        <v>34538</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>60102</v>
+        <v>59220</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.156031769905975</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1169241068156256</v>
+        <v>0.1162985456196404</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2023799225342632</v>
+        <v>0.1994077972492512</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>144506</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>132742</v>
+        <v>132564</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>154593</v>
+        <v>154708</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7884276112199897</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7242406718519941</v>
+        <v>0.7232719252360256</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8434594031827426</v>
+        <v>0.8440865231231608</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>100</v>
@@ -2160,19 +2160,19 @@
         <v>106133</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>99434</v>
+        <v>99598</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>110383</v>
+        <v>110487</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9335049288665856</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8745844107547662</v>
+        <v>0.8760274589549581</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9708882868602178</v>
+        <v>0.9717991391737076</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>238</v>
@@ -2181,19 +2181,19 @@
         <v>250639</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>236875</v>
+        <v>237757</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>262253</v>
+        <v>262439</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.843968230094025</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7976200774657368</v>
+        <v>0.8005922027507488</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8830758931843744</v>
+        <v>0.8837014543803597</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>5060</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1908</v>
+        <v>1922</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9619</v>
+        <v>10025</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.194228194096131</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07322112479992496</v>
+        <v>0.07376655097423608</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3691913592226214</v>
+        <v>0.384766025995847</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -2309,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9959</v>
+        <v>9983</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1293367177832328</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3460976864541574</v>
+        <v>0.3469242868481945</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>7</v>
@@ -2327,19 +2327,19 @@
         <v>8782</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3420</v>
+        <v>3756</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>16766</v>
+        <v>16388</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1601725177647072</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06237154543820476</v>
+        <v>0.06851147816073472</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3057781247295849</v>
+        <v>0.2988959503031658</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>20994</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>16435</v>
+        <v>16029</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>24146</v>
+        <v>24132</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.805771805903869</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6308086407773785</v>
+        <v>0.6152339740041536</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9267788752000751</v>
+        <v>0.926233449025764</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>23</v>
@@ -2377,7 +2377,7 @@
         <v>25053</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>18816</v>
+        <v>18792</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>28775</v>
@@ -2386,7 +2386,7 @@
         <v>0.8706632822167671</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6539023135458433</v>
+        <v>0.6530757131518056</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -2398,19 +2398,19 @@
         <v>46047</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>38063</v>
+        <v>38441</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>51409</v>
+        <v>51073</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8398274822352928</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6942218752704151</v>
+        <v>0.7011040496968342</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9376284545617952</v>
+        <v>0.9314885218392656</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>62196</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>49663</v>
+        <v>48877</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>76623</v>
+        <v>77044</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2174100105525334</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1735998943428589</v>
+        <v>0.1708533086022672</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2678394145816095</v>
+        <v>0.2693114175118934</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>11</v>
@@ -2523,19 +2523,19 @@
         <v>13446</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>7252</v>
+        <v>6739</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>24302</v>
+        <v>23207</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05264687529362158</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.028392660922409</v>
+        <v>0.02638448427848218</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.095152351366646</v>
+        <v>0.09086444810774015</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>73</v>
@@ -2544,19 +2544,19 @@
         <v>75642</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>60947</v>
+        <v>60352</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>95449</v>
+        <v>93515</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.139695029763214</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1125550235611832</v>
+        <v>0.1114562217363788</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1762728939343496</v>
+        <v>0.1727023136167172</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>223882</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>209455</v>
+        <v>209034</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>236415</v>
+        <v>237201</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7825899894474666</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7321605854183905</v>
+        <v>0.7306885824881068</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8264001056571412</v>
+        <v>0.8291466913977331</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>228</v>
@@ -2594,19 +2594,19 @@
         <v>241959</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>231103</v>
+        <v>232198</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>248153</v>
+        <v>248666</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9473531247063784</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9048476486333538</v>
+        <v>0.9091355518922601</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9716073390775908</v>
+        <v>0.9736155157215179</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>440</v>
@@ -2615,19 +2615,19 @@
         <v>465840</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>446033</v>
+        <v>447967</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>480535</v>
+        <v>481130</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.860304970236786</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8237271060656504</v>
+        <v>0.8272976863832828</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8874449764388168</v>
+        <v>0.8885437782636212</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>4854</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1924</v>
+        <v>1879</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10726</v>
+        <v>9919</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1081151864190988</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04284719812877893</v>
+        <v>0.04185176924456828</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2388919989959516</v>
+        <v>0.220922831244294</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -2982,7 +2982,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6307</v>
+        <v>7314</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02848859504913488</v>
@@ -2991,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08454389693249924</v>
+        <v>0.09804276469686757</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -3000,19 +3000,19 @@
         <v>6979</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3121</v>
+        <v>2953</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>14088</v>
+        <v>13168</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05840502981531999</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02612143097850855</v>
+        <v>0.02471522018076724</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1178963431037853</v>
+        <v>0.110195428850822</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>40043</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>34171</v>
+        <v>34978</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>42973</v>
+        <v>43018</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8918848135809012</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7611080010040483</v>
+        <v>0.779077168755706</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9571528018712211</v>
+        <v>0.9581482307554317</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>61</v>
@@ -3050,7 +3050,7 @@
         <v>72477</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>68295</v>
+        <v>67288</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>74602</v>
@@ -3059,7 +3059,7 @@
         <v>0.9715114049508651</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9154561030675005</v>
+        <v>0.9019572353031324</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -3071,19 +3071,19 @@
         <v>112519</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>105410</v>
+        <v>106330</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>116377</v>
+        <v>116545</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.94159497018468</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8821036568962147</v>
+        <v>0.8898045711491773</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9738785690214914</v>
+        <v>0.9752847798192328</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>21154</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13937</v>
+        <v>13828</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>31588</v>
+        <v>30793</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1761032591131011</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1160252833049121</v>
+        <v>0.1151180517488158</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2629668308379164</v>
+        <v>0.2563439147141226</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>8</v>
@@ -3196,19 +3196,19 @@
         <v>8072</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4010</v>
+        <v>4022</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>15383</v>
+        <v>15137</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09402771565570806</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04671173690052844</v>
+        <v>0.04685641188767065</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1791982100336637</v>
+        <v>0.1763254512401458</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>28</v>
@@ -3217,19 +3217,19 @@
         <v>29226</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>20509</v>
+        <v>20124</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>41103</v>
+        <v>42494</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1418950394977486</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09957331142448837</v>
+        <v>0.09770659613392847</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.199560359748898</v>
+        <v>0.2063140224431538</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>98968</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>88534</v>
+        <v>89329</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>106185</v>
+        <v>106294</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8238967408868989</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7370331691620835</v>
+        <v>0.7436560852858776</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8839747166950879</v>
+        <v>0.8848819482511844</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>73</v>
@@ -3267,19 +3267,19 @@
         <v>77773</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>70462</v>
+        <v>70708</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>81835</v>
+        <v>81823</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.905972284344292</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8208017899663367</v>
+        <v>0.8236745487598545</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9532882630994716</v>
+        <v>0.9531435881123294</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>167</v>
@@ -3288,19 +3288,19 @@
         <v>176740</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>164863</v>
+        <v>163472</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>185457</v>
+        <v>185842</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8581049605022515</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.800439640251102</v>
+        <v>0.793685977556846</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9004266885755119</v>
+        <v>0.9022934038660714</v>
       </c>
     </row>
     <row r="9">
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8739</v>
+        <v>8963</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08560284073318657</v>
@@ -3404,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2837723703567336</v>
+        <v>0.2910397854105345</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -3413,19 +3413,19 @@
         <v>3921</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1080</v>
+        <v>1041</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9684</v>
+        <v>8991</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1264485325112592</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03482754400759382</v>
+        <v>0.0335681970500867</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.312301134630423</v>
+        <v>0.2899508512474819</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>6</v>
@@ -3434,19 +3434,19 @@
         <v>6557</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2683</v>
+        <v>2484</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>12809</v>
+        <v>13773</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1060954104260374</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04341650454336737</v>
+        <v>0.04018479181895607</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2072507218430554</v>
+        <v>0.2228582884354406</v>
       </c>
     </row>
     <row r="11">
@@ -3463,7 +3463,7 @@
         <v>28160</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>22057</v>
+        <v>21833</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>30796</v>
@@ -3472,7 +3472,7 @@
         <v>0.9143971592668134</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.716227629643266</v>
+        <v>0.7089602145894655</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -3484,19 +3484,19 @@
         <v>27086</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>21323</v>
+        <v>22016</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>29927</v>
+        <v>29966</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8735514674887408</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6876988653695771</v>
+        <v>0.7100491487525186</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9651724559924062</v>
+        <v>0.9664318029499134</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>49</v>
@@ -3505,19 +3505,19 @@
         <v>55246</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>48994</v>
+        <v>48030</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>59120</v>
+        <v>59319</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8939045895739626</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7927492781569443</v>
+        <v>0.7771417115645587</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9565834954566325</v>
+        <v>0.9598152081810437</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>28644</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>19921</v>
+        <v>19718</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>40476</v>
+        <v>39233</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1462816770123368</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.101733040466305</v>
+        <v>0.1006995875469087</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2067034930488485</v>
+        <v>0.2003560544529852</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>14</v>
@@ -3630,19 +3630,19 @@
         <v>14118</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>8168</v>
+        <v>7254</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>22691</v>
+        <v>22559</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07374054388422088</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04266470319071783</v>
+        <v>0.0378881539605784</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1185212447961957</v>
+        <v>0.1178279159451271</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>41</v>
@@ -3651,19 +3651,19 @@
         <v>42762</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>31126</v>
+        <v>30901</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>55747</v>
+        <v>56451</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1104195578053261</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08037435893608232</v>
+        <v>0.07979241202293105</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1439498918733598</v>
+        <v>0.1457662050405424</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>167171</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>155339</v>
+        <v>156582</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>175894</v>
+        <v>176097</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8537183229876631</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7932965069511513</v>
+        <v>0.7996439455470149</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.898266959533695</v>
+        <v>0.8993004124530909</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>158</v>
@@ -3701,19 +3701,19 @@
         <v>177335</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>168762</v>
+        <v>168894</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>183285</v>
+        <v>184199</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9262594561157791</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8814787552038044</v>
+        <v>0.8821720840548731</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9573352968092821</v>
+        <v>0.962111846039422</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>320</v>
@@ -3722,19 +3722,19 @@
         <v>344506</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>331521</v>
+        <v>330817</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>356142</v>
+        <v>356367</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8895804421946739</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8560501081266402</v>
+        <v>0.8542337949594576</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9196256410639176</v>
+        <v>0.9202075879770689</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>5074</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1928</v>
+        <v>1792</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10748</v>
+        <v>11048</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1340779187739848</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05094170062806683</v>
+        <v>0.04736040525868906</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2840025016675474</v>
+        <v>0.2919377243103077</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -4086,19 +4086,19 @@
         <v>2729</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>997</v>
+        <v>955</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6774</v>
+        <v>6021</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03228412555705669</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0118008712253703</v>
+        <v>0.01129467788574915</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08014838942880659</v>
+        <v>0.07123291709323558</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -4107,19 +4107,19 @@
         <v>7803</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3612</v>
+        <v>3917</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>14051</v>
+        <v>14510</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06376517000818999</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02951666314888074</v>
+        <v>0.03201347378298358</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1148282784081882</v>
+        <v>0.1185808912627643</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>32769</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>27095</v>
+        <v>26795</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>35915</v>
+        <v>36051</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.865922081226015</v>
+        <v>0.8659220812260152</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7159974983324525</v>
+        <v>0.7080622756896928</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9490582993719333</v>
+        <v>0.9526395947413109</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>152</v>
@@ -4157,19 +4157,19 @@
         <v>81792</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>77747</v>
+        <v>78500</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>83524</v>
+        <v>83566</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9677158744429432</v>
+        <v>0.9677158744429435</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9198516105711931</v>
+        <v>0.9287670829067646</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9881991287746297</v>
+        <v>0.988705322114251</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>200</v>
@@ -4178,19 +4178,19 @@
         <v>114561</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>108313</v>
+        <v>107854</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>118752</v>
+        <v>118447</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.93623482999181</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8851717215918118</v>
+        <v>0.8814191087372352</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9704833368511193</v>
+        <v>0.9679865262170164</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>40162</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>29613</v>
+        <v>28467</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>53039</v>
+        <v>54287</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.2887171525702941</v>
+        <v>0.288717152570294</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2128806650849279</v>
+        <v>0.2046440644680339</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3812843748960426</v>
+        <v>0.3902574323831368</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>15</v>
@@ -4303,19 +4303,19 @@
         <v>12415</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6918</v>
+        <v>7128</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>20063</v>
+        <v>20085</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1118193493738273</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06231358458798823</v>
+        <v>0.06420186066727332</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1807064749528089</v>
+        <v>0.1809055990690333</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>48</v>
@@ -4324,19 +4324,19 @@
         <v>52577</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>38928</v>
+        <v>39559</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>69143</v>
+        <v>69757</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2101971085486806</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1556289086322667</v>
+        <v>0.1581516918684717</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2764246990381642</v>
+        <v>0.2788794792476044</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>98944</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>86067</v>
+        <v>84819</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>109493</v>
+        <v>110639</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7112828474297059</v>
+        <v>0.7112828474297057</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6187156251039573</v>
+        <v>0.6097425676168624</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7871193349150722</v>
+        <v>0.795355935531966</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>132</v>
@@ -4374,19 +4374,19 @@
         <v>98612</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>90964</v>
+        <v>90942</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>104109</v>
+        <v>103899</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8881806506261726</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.819293525047191</v>
+        <v>0.8190944009309665</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9376864154120117</v>
+        <v>0.9357981393327262</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>223</v>
@@ -4395,19 +4395,19 @@
         <v>197557</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>180991</v>
+        <v>180377</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>211206</v>
+        <v>210575</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7898028914513194</v>
+        <v>0.7898028914513193</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7235753009618359</v>
+        <v>0.7211205207523955</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8443710913677334</v>
+        <v>0.8418483081315283</v>
       </c>
     </row>
     <row r="9">
@@ -4502,7 +4502,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10328</v>
+        <v>9404</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07143704349524874</v>
@@ -4511,7 +4511,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.247848829970886</v>
+        <v>0.2256798696260682</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -4523,7 +4523,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4380</v>
+        <v>4156</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04046259670323454</v>
@@ -4532,7 +4532,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1243067524141113</v>
+        <v>0.1179450889296645</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>4</v>
@@ -4541,19 +4541,19 @@
         <v>4403</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1326</v>
+        <v>1061</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>11521</v>
+        <v>11591</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.05724449072978857</v>
+        <v>0.05724449072978858</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01724689740618983</v>
+        <v>0.01379623745061922</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1497963648005329</v>
+        <v>0.1507187089090996</v>
       </c>
     </row>
     <row r="11">
@@ -4570,7 +4570,7 @@
         <v>38692</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>31341</v>
+        <v>32265</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>41669</v>
@@ -4579,7 +4579,7 @@
         <v>0.9285629565047512</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7521511700291131</v>
+        <v>0.7743201303739315</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -4591,16 +4591,16 @@
         <v>33813</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>30859</v>
+        <v>31083</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>35239</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9595374032967656</v>
+        <v>0.9595374032967654</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8756932475858885</v>
+        <v>0.8820549110703355</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -4612,19 +4612,19 @@
         <v>72505</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>65387</v>
+        <v>65317</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>75582</v>
+        <v>75847</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9427555092702112</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8502036351994674</v>
+        <v>0.8492812910909011</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9827531025938101</v>
+        <v>0.9862037625493828</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>48213</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>36512</v>
+        <v>35276</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>67555</v>
+        <v>63385</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2205354273054596</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1670146677469638</v>
+        <v>0.1613588299829716</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3090101552934864</v>
+        <v>0.2899362895448984</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>22</v>
@@ -4737,19 +4737,19 @@
         <v>16570</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10406</v>
+        <v>10162</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>25835</v>
+        <v>25151</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07179567123391432</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04508685990846138</v>
+        <v>0.04403009362616913</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1119441349867241</v>
+        <v>0.1089801053467658</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>62</v>
@@ -4758,19 +4758,19 @@
         <v>64782</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>49841</v>
+        <v>49967</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>83949</v>
+        <v>83256</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.144151493756758</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.11090542980672</v>
+        <v>0.1111856885066985</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1868013154215306</v>
+        <v>0.1852576924771424</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>170404</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>151062</v>
+        <v>155232</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>182105</v>
+        <v>183341</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7794645726945404</v>
+        <v>0.7794645726945403</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6909898447065123</v>
+        <v>0.7100637104551015</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8329853322530362</v>
+        <v>0.8386411700170283</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>335</v>
@@ -4808,19 +4808,19 @@
         <v>214218</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>204953</v>
+        <v>205637</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>220382</v>
+        <v>220626</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9282043287660858</v>
+        <v>0.9282043287660856</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8880558650132759</v>
+        <v>0.8910198946532344</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9549131400915386</v>
+        <v>0.9559699063738309</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>505</v>
@@ -4829,19 +4829,19 @@
         <v>384623</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>365456</v>
+        <v>366149</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>399564</v>
+        <v>399438</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.855848506243242</v>
+        <v>0.8558485062432419</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8131986845784694</v>
+        <v>0.8147423075228574</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.88909457019328</v>
+        <v>0.8888143114933015</v>
       </c>
     </row>
     <row r="15">
